--- a/SPO/lr6/Матрица отношений предшествования.xlsx
+++ b/SPO/lr6/Матрица отношений предшествования.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_dod\source\repos\Mutabona\4Semestr\SPO\lr6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97A91ED-A4C8-4452-95D8-0F9EE71CB66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D3B87-97A7-461B-A3B4-DFB697AD5398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="21690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7140" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
   <si>
     <t>I</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -408,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -425,378 +428,407 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>18</v>
       </c>
     </row>
